--- a/static/BTS_SIO_Annexe_VI.5_EpreuveE5-Tableau-de-synthese_2026.xlsx
+++ b/static/BTS_SIO_Annexe_VI.5_EpreuveE5-Tableau-de-synthese_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIO MARILLAC\SIO1\Formation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F5597-612A-4D4F-BDAA-A69EC137DD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2482BDAC-0F04-4557-B6FD-D247088B0BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>NOM et prénom : CUNY Enzo</t>
   </si>
   <si>
-    <t>Centre de formation : UUIM</t>
-  </si>
-  <si>
     <t>Adresse URL du portfolio : enzocuny-bts-sio-sisr.netlify.app</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Analyse et résolution d’incidents complexes utilisateurs / systèmes</t>
+  </si>
+  <si>
+    <t>Centre de formation : UIMM POLE FORMATION OCCITANIE</t>
   </si>
 </sst>
 </file>
@@ -745,15 +745,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -786,33 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1189,8 +1189,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1203,56 +1203,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1264,22 +1264,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="A5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1302,8 +1302,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1359,16 +1359,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="16"/>
@@ -1415,7 +1415,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9"/>
@@ -1456,17 +1456,17 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10"/>
@@ -1507,17 +1507,17 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11"/>
@@ -1558,17 +1558,17 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12"/>
@@ -1609,19 +1609,19 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13"/>
@@ -1662,17 +1662,17 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14"/>
@@ -1713,18 +1713,18 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -1764,17 +1764,17 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16"/>
@@ -1815,21 +1815,21 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17"/>
@@ -1870,17 +1870,17 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18"/>
@@ -1920,16 +1920,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1968,11 +1968,11 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -2066,14 +2066,14 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
@@ -2115,18 +2115,18 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -2166,11 +2166,11 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2215,17 +2215,17 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25"/>
@@ -2266,12 +2266,12 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -2314,16 +2314,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2362,17 +2362,17 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28"/>
@@ -2413,18 +2413,18 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="44"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="18"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -2464,19 +2464,19 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30"/>
@@ -2517,19 +2517,19 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31"/>
@@ -2570,17 +2570,17 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32"/>
@@ -2621,19 +2621,19 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33"/>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="19" t="str">
@@ -2818,11 +2818,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2830,6 +2825,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2841,26 +2841,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2f87cbb3-84fe-48aa-94bc-fba7d6cea715" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="da94cc6b-daf9-4478-a76e-7ac399e2172b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A987D31D37F414BB32E17B7A2C5C546" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="dcec2760484d575c56970993693d4a43">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da94cc6b-daf9-4478-a76e-7ac399e2172b" xmlns:ns3="2f87cbb3-84fe-48aa-94bc-fba7d6cea715" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbc9351d20d8f37ef6049b5c3d9e9a2f" ns2:_="" ns3:_="">
     <xsd:import namespace="da94cc6b-daf9-4478-a76e-7ac399e2172b"/>
@@ -3095,26 +3075,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14CE0A0E-BEA2-472B-8508-0D07E24EEEF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2f87cbb3-84fe-48aa-94bc-fba7d6cea715"/>
-    <ds:schemaRef ds:uri="da94cc6b-daf9-4478-a76e-7ac399e2172b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D9DAE2A-9D82-4B63-8F5C-A363E69813EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2f87cbb3-84fe-48aa-94bc-fba7d6cea715" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="da94cc6b-daf9-4478-a76e-7ac399e2172b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEFCAD8-A899-47F0-A155-D30879B9B3D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3131,4 +3112,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D9DAE2A-9D82-4B63-8F5C-A363E69813EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14CE0A0E-BEA2-472B-8508-0D07E24EEEF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2f87cbb3-84fe-48aa-94bc-fba7d6cea715"/>
+    <ds:schemaRef ds:uri="da94cc6b-daf9-4478-a76e-7ac399e2172b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>